--- a/student_performance_report.xlsx
+++ b/student_performance_report.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Student Performance Report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Student Dashboard" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -55,7 +55,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -69,39 +69,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -113,11 +85,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -485,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Average attendance for the year</t>
+          <t>Average Attendance</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -529,7 +496,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Percentage of grades per module so far</t>
+          <t>Grades by Module</t>
         </is>
       </c>
     </row>
@@ -548,7 +515,7 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>CS201: Data Structure &amp; Algorithm</t>
+          <t>Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
@@ -558,7 +525,7 @@
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>CS202: Web Development</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
@@ -568,7 +535,7 @@
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>CS203: Artificial Intelligence</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
@@ -578,7 +545,7 @@
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>CS204: Database Management</t>
+          <t>Database Management</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
@@ -588,7 +555,7 @@
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>CS205: Cybersecurity</t>
+          <t>Cybersecurity</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
@@ -596,79 +563,58 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Assignments completion status by Module</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n"/>
-      <c r="C14" s="6" t="n"/>
-      <c r="D14" s="7" t="n"/>
+      <c r="A14" s="4" t="n"/>
+      <c r="B14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>Module Name</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>Assignment Name</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>Score</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="inlineStr">
-        <is>
-          <t>Status</t>
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Assignments</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>CS202: Web Development</t>
+          <t>Module Name</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Responsive Design Project</t>
+          <t>Assignment Name</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>82%</t>
-        </is>
-      </c>
-      <c r="D17" s="8" t="inlineStr">
-        <is>
-          <t>Completed</t>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>Status</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>CS203: Artificial Intelligence</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Neural Network Implementation</t>
+          <t>Responsive Design Project</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>85%</t>
-        </is>
-      </c>
-      <c r="D18" s="8" t="inlineStr">
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
@@ -677,34 +623,34 @@
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>CS203: Artificial Intelligence</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Ethical Concerns in AI Development</t>
+          <t>Neural Network Implementation</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>Not Completed</t>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>Completed</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>CS203: Artificial Intelligence</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Sentiment Analysis using NLP</t>
+          <t>Ethical Concerns in AI Development</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
@@ -712,51 +658,51 @@
           <t>n/a</t>
         </is>
       </c>
-      <c r="D20" s="9" t="inlineStr">
-        <is>
-          <t>Not Started</t>
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>Not Completed</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>CS204: Database Management</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Normalization Techniques</t>
+          <t>Sentiment Analysis using NLP</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>88%</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="inlineStr">
-        <is>
-          <t>Completed</t>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>CS204: Database Management</t>
+          <t>Database Management</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>SQL Query Optimization</t>
+          <t>Normalization Techniques</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>92%</t>
-        </is>
-      </c>
-      <c r="D22" s="8" t="inlineStr">
+          <t>88%</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
@@ -765,20 +711,20 @@
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>CS205: Cybersecurity</t>
+          <t>Database Management</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Network Security Protocols</t>
+          <t>SQL Query Optimization</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>80%</t>
-        </is>
-      </c>
-      <c r="D23" s="8" t="inlineStr">
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
@@ -787,20 +733,20 @@
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>CS205: Cybersecurity</t>
+          <t>Cybersecurity</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Ethical Hacking Fundamentals</t>
+          <t>Network Security Protocols</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>68%</t>
-        </is>
-      </c>
-      <c r="D24" s="8" t="inlineStr">
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
@@ -809,236 +755,252 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>CS205: Cybersecurity</t>
+          <t>Cybersecurity</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
+          <t>Ethical Hacking Fundamentals</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>Cybersecurity</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
           <t>Malware Analysis</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>n/a</t>
         </is>
       </c>
-      <c r="D25" s="9" t="inlineStr">
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>Exam completion status by Module</t>
-        </is>
-      </c>
-    </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Module Name</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Exam Name</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Score</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
-        <is>
-          <t>CS201: Data Structure &amp; Algorithm</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>DSA Exam</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>78%</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="inlineStr">
-        <is>
-          <t>Completed</t>
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>Exams</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>CS202: Web Development</t>
+          <t>Module Name</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Web Dev Exam</t>
+          <t>Exam Name</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>Score</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Status</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>CS204: Database Management</t>
+          <t>Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
+          <t>DSA Exam</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Web Development</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Web Dev Exam</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Database Management</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
           <t>Ethical Concerns in AI Development</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>n/a</t>
         </is>
       </c>
-      <c r="D30" s="9" t="inlineStr">
+      <c r="D32" s="6" t="inlineStr">
         <is>
           <t>Not Completed</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="4" t="n"/>
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
-      <c r="D31" s="4" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>Upcoming Deadlines</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Module Name</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Assignment Name</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Deadline Date</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Days Left</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="inlineStr">
-        <is>
-          <t>CS203: Artificial Intelligence</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>Ethical Concerns in AI Development</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>21/03/2025</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="inlineStr">
-        <is>
-          <t>10</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>CS202: Web Development</t>
+          <t>Module Name</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Sentiment Analysis using NLP</t>
+          <t>Assignment Name</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t>Deadline Date</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t>Days Left</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>CS204: Database Management</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
+          <t>Ethical Concerns in AI Development</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>Web Development</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Sentiment Analysis using NLP</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>TBC</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>TBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="inlineStr">
+        <is>
+          <t>Database Management</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
           <t>Malware Analysis</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>TBC</t>
         </is>
       </c>
-      <c r="D36" s="4" t="inlineStr">
+      <c r="D38" s="4" t="inlineStr">
         <is>
           <t>TBC</t>
         </is>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="n"/>
-      <c r="B37" s="4" t="n"/>
-      <c r="C37" s="4" t="n"/>
-      <c r="D37" s="4" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
